--- a/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>子弹飞行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +50,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectEffect</t>
+    <t>Effect/ArrowFX_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/ArrowFX_FireRain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectRoute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,7 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -447,7 +454,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -475,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -488,8 +495,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -502,6 +509,9 @@
       <c r="C6" s="2">
         <v>10</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
@@ -513,16 +523,8 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>子弹飞行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,23 +54,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect/ArrowFX_FireRain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>effectRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/CloudFlashFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,13 +155,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,17 +182,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,52 +489,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="52.25" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -495,36 +555,54 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -535,12 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -549,12 +627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,13 +16,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>子弹飞行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹效果ID</t>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kunai2</t>
+  </si>
+  <si>
+    <t>子弹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹效果路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,71 +81,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>effectID</t>
+    <t>Kunai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹效果路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect/ArrowFX_Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectRoute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect/CloudFlashFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动轨迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>Kunai8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,6 +164,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -174,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -185,10 +198,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -313,7 +328,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,119 +503,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="52.25" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>15</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
         <v>6</v>
       </c>
     </row>
@@ -613,12 +629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,12 +643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>子弹飞行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +90,26 @@
   </si>
   <si>
     <t>Kunai8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,121 +517,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.25" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
     </row>
@@ -629,12 +661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/SkillBullet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>子弹飞行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,9 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kunai2</t>
-  </si>
-  <si>
     <t>子弹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,18 +78,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kunai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kunai8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +91,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/CloudFlashFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/ArrowFX_Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +518,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,19 +532,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -555,16 +552,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -575,7 +572,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -607,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5">
         <v>6</v>
@@ -627,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
@@ -641,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
